--- a/poisson.xlsx
+++ b/poisson.xlsx
@@ -14,20 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>PARAMETRI</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>DATASET</t>
+  </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>P(X)</t>
   </si>
+  <si>
+    <t>END - DATASET</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -43,15 +67,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -59,13 +95,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,7 +193,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Poisson!$B$1</c:f>
+              <c:f>Poisson!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -121,10 +207,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Poisson!$A$2:$A$21</c:f>
+              <c:f>Poisson!$E$3:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -184,75 +270,147 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Poisson!$B$2:$B$21</c:f>
+              <c:f>Poisson!$F$3:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.6065306597126334</c:v>
+                  <c:v>0.04978706836786394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3032653298563167</c:v>
+                  <c:v>0.1493612051035918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.07581633246407918</c:v>
+                  <c:v>0.2240418076553878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01263605541067986</c:v>
+                  <c:v>0.2240418076553878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.001579506926334983</c:v>
+                  <c:v>0.1680313557415408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0001579506926334983</c:v>
+                  <c:v>0.1008188134449245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.316255771945819e-05</c:v>
+                  <c:v>0.05040940672246224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.401826942470136e-07</c:v>
+                  <c:v>0.02160403145248382</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.876141839043835e-08</c:v>
+                  <c:v>0.008101511794681432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.264523243913242e-09</c:v>
+                  <c:v>0.002700503931560478</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.632261621956621e-10</c:v>
+                  <c:v>0.0008101511794681432</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.419371008893732e-12</c:v>
+                  <c:v>0.0002209503216731299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.091404587039055e-13</c:v>
+                  <c:v>5.523758041828249e-05</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.18900176424579e-14</c:v>
+                  <c:v>1.274713394268057e-05</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.246434872306393e-16</c:v>
+                  <c:v>2.73152870200298e-06</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.415478290768798e-17</c:v>
+                  <c:v>5.46305740400596e-07</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.423369658652494e-19</c:v>
+                  <c:v>1.024323263251118e-07</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.300991076074263e-20</c:v>
+                  <c:v>1.807629288090208e-08</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.613864100206285e-22</c:v>
+                  <c:v>3.012715480150346e-09</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.510168684753383e-24</c:v>
+                  <c:v>4.756919179184757e-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.135378768777135e-11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.019339824111019e-11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.390008851060481e-12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.813055023122366e-13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.266318778902958e-14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.719582534683549e-15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.137979847711788e-16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.48664427523532e-17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.735690294894985e-18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.864507201615503e-19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.864507201615502e-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.739845678982744e-21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,13 +464,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -622,189 +780,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="B2" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.6065306597126334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="F3" s="2">
+        <v>0.04978706836786394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.3032653298563167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="F4" s="2">
+        <v>0.1493612051035918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.07581633246407918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="F5" s="2">
+        <v>0.2240418076553878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.01263605541067986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="F6" s="2">
+        <v>0.2240418076553878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.001579506926334983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="F7" s="2">
+        <v>0.1680313557415408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.0001579506926334983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+      <c r="F8" s="2">
+        <v>0.1008188134449245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="2">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.316255771945819e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+      <c r="F9" s="2">
+        <v>0.05040940672246224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" s="2">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>9.401826942470136e-07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+      <c r="F10" s="2">
+        <v>0.02160403145248382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>5.876141839043835e-08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="F11" s="2">
+        <v>0.008101511794681432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" s="2">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>3.264523243913242e-09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="F12" s="2">
+        <v>0.002700503931560478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.632261621956621e-10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+      <c r="F13" s="2">
+        <v>0.0008101511794681432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="2">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>7.419371008893732e-12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+      <c r="F14" s="2">
+        <v>0.0002209503216731299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" s="2">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>3.091404587039055e-13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="F15" s="2">
+        <v>5.523758041828249e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="2">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.18900176424579e-14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="F16" s="2">
+        <v>1.274713394268057e-05</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="2">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>4.246434872306393e-16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="F17" s="2">
+        <v>2.73152870200298e-06</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="2">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.415478290768798e-17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+      <c r="F18" s="2">
+        <v>5.46305740400596e-07</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="2">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>4.423369658652494e-19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+      <c r="F19" s="2">
+        <v>1.024323263251118e-07</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="2">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.300991076074263e-20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+      <c r="F20" s="2">
+        <v>1.807629288090208e-08</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="2">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>3.613864100206285e-22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+      <c r="F21" s="2">
+        <v>3.012715480150346e-09</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="2">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>9.510168684753383e-24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+      <c r="F22" s="2">
+        <v>4.756919179184757e-10</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="2">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>2.377542171188346e-25</v>
-      </c>
+      <c r="F23" s="2">
+        <v>7.135378768777135e-11</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="2">
+        <v>21</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.019339824111019e-11</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" s="2">
+        <v>22</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.390008851060481e-12</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="2">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.813055023122366e-13</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="2">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2.266318778902958e-14</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" s="2">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.719582534683549e-15</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" s="2">
+        <v>26</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3.137979847711788e-16</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" s="2">
+        <v>27</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3.48664427523532e-17</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31" s="2">
+        <v>28</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3.735690294894985e-18</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32" s="2">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3.864507201615503e-19</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="2">
+        <v>30</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3.864507201615502e-20</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" s="2">
+        <v>31</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3.739845678982744e-21</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="2">
+        <v>32</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3.506105324046323e-22</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="2">
+        <v>33</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3.187368476405748e-23</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E37:F37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/poisson.xlsx
+++ b/poisson.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>PARAMETRI</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>DATASET</t>
@@ -87,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,6 +123,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -138,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,7 +161,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -207,10 +220,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Poisson!$E$3:$E$34</c:f>
+              <c:f>Poisson!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -243,174 +256,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Poisson!$F$3:$F$34</c:f>
+              <c:f>Poisson!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.04978706836786394</c:v>
+                  <c:v>0.0003354626279025119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1493612051035918</c:v>
+                  <c:v>0.002683701023220095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2240418076553878</c:v>
+                  <c:v>0.01073480409288038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2240418076553878</c:v>
+                  <c:v>0.02862614424768101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1680313557415408</c:v>
+                  <c:v>0.05725228849536202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1008188134449245</c:v>
+                  <c:v>0.09160366159257924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05040940672246224</c:v>
+                  <c:v>0.1221382154567723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02160403145248382</c:v>
+                  <c:v>0.1395865319505969</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.008101511794681432</c:v>
+                  <c:v>0.1395865319505969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.002700503931560478</c:v>
+                  <c:v>0.1240769172894195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0008101511794681432</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0002209503216731299</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.523758041828249e-05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.274713394268057e-05</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.73152870200298e-06</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.46305740400596e-07</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.024323263251118e-07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.807629288090208e-08</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.012715480150346e-09</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.756919179184757e-10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.135378768777135e-11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.019339824111019e-11</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.390008851060481e-12</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.813055023122366e-13</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.266318778902958e-14</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.719582534683549e-15</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.137979847711788e-16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.48664427523532e-17</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.735690294894985e-18</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.864507201615503e-19</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.864507201615502e-20</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.739845678982744e-21</c:v>
+                  <c:v>0.09926153383153559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,9 +358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -780,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,7 +683,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -805,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -819,21 +706,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.04978706836786394</v>
+        <v>0.0003354626279025119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>0.1493612051035918</v>
+        <v>0.002683701023220095</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -841,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>0.2240418076553878</v>
+        <v>0.01073480409288038</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -849,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>0.2240418076553878</v>
+        <v>0.02862614424768101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -857,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>0.1680313557415408</v>
+        <v>0.05725228849536202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -865,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>0.1008188134449245</v>
+        <v>0.09160366159257924</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -873,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>0.05040940672246224</v>
+        <v>0.1221382154567723</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -881,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="2">
-        <v>0.02160403145248382</v>
+        <v>0.1395865319505969</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -889,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="2">
-        <v>0.008101511794681432</v>
+        <v>0.1395865319505969</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -897,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="2">
-        <v>0.002700503931560478</v>
+        <v>0.1240769172894195</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -905,204 +796,21 @@
         <v>10</v>
       </c>
       <c r="F13" s="2">
-        <v>0.0008101511794681432</v>
+        <v>0.09926153383153559</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="E14" s="2">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.0002209503216731299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15" s="2">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5.523758041828249e-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="E16" s="2">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.274713394268057e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="2">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2.73152870200298e-06</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="2">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5.46305740400596e-07</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="2">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.024323263251118e-07</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="2">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.807629288090208e-08</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="2">
-        <v>18</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3.012715480150346e-09</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" s="2">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4.756919179184757e-10</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" s="2">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2">
-        <v>7.135378768777135e-11</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" s="2">
-        <v>21</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.019339824111019e-11</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" s="2">
-        <v>22</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.390008851060481e-12</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="2">
-        <v>23</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.813055023122366e-13</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" s="2">
-        <v>24</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2.266318778902958e-14</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="2">
-        <v>25</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2.719582534683549e-15</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="2">
-        <v>26</v>
-      </c>
-      <c r="F29" s="2">
-        <v>3.137979847711788e-16</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6">
-      <c r="E30" s="2">
-        <v>27</v>
-      </c>
-      <c r="F30" s="2">
-        <v>3.48664427523532e-17</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" s="2">
-        <v>28</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3.735690294894985e-18</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6">
-      <c r="E32" s="2">
-        <v>29</v>
-      </c>
-      <c r="F32" s="2">
-        <v>3.864507201615503e-19</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" s="2">
-        <v>30</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3.864507201615502e-20</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34" s="2">
-        <v>31</v>
-      </c>
-      <c r="F34" s="2">
-        <v>3.739845678982744e-21</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" s="2">
-        <v>32</v>
-      </c>
-      <c r="F35" s="2">
-        <v>3.506105324046323e-22</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36" s="2">
-        <v>33</v>
-      </c>
-      <c r="F36" s="2">
-        <v>3.187368476405748e-23</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
